--- a/docs/Grid Search.xlsx
+++ b/docs/Grid Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucai\Desktop\Magistrale\Tirocinio\AIforBioinformatics\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1735819F-2FCA-4186-ADCB-8A5D0A6DD23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63F68C2-7B67-4732-B680-45D4CFA36BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20342,7 +20342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20831,11 +20831,11 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21120,42 +21120,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W683"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="T651" sqref="T651"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A377" sqref="A377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="101.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="101.36328125" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" customWidth="1"/>
+    <col min="5" max="6" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="70.88671875" customWidth="1"/>
-    <col min="21" max="21" width="51.44140625" customWidth="1"/>
-    <col min="22" max="22" width="70.21875" customWidth="1"/>
-    <col min="23" max="23" width="58.5546875" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" customWidth="1"/>
+    <col min="16" max="16" width="6.6328125" customWidth="1"/>
+    <col min="17" max="17" width="8.54296875" customWidth="1"/>
+    <col min="18" max="18" width="9.6328125" customWidth="1"/>
+    <col min="19" max="19" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.90625" customWidth="1"/>
+    <col min="21" max="21" width="51.453125" customWidth="1"/>
+    <col min="22" max="22" width="70.1796875" customWidth="1"/>
+    <col min="23" max="23" width="58.54296875" customWidth="1"/>
     <col min="24" max="24" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.5">
       <c r="B1" s="50" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="43.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -21224,7 +21224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -21366,7 +21366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -21650,7 +21650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" s="7" t="s">
         <v>61</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="7" t="s">
         <v>78</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="7" t="s">
         <v>80</v>
       </c>
@@ -22360,7 +22360,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="7" t="s">
         <v>85</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="7" t="s">
         <v>109</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="7" t="s">
         <v>114</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="7" t="s">
         <v>118</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="7" t="s">
         <v>119</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="7" t="s">
         <v>123</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="7" t="s">
         <v>127</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" s="7" t="s">
         <v>143</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" s="7" t="s">
         <v>146</v>
       </c>
@@ -23070,7 +23070,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="7" t="s">
         <v>148</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" s="7" t="s">
         <v>151</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" s="7" t="s">
         <v>153</v>
       </c>
@@ -23283,7 +23283,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" s="7" t="s">
         <v>156</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23">
       <c r="A33" s="7" t="s">
         <v>158</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" s="7" t="s">
         <v>160</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23">
       <c r="A35" s="7" t="s">
         <v>158</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23">
       <c r="A36" s="7" t="s">
         <v>163</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23">
       <c r="A37" s="7" t="s">
         <v>167</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23">
       <c r="A39" s="7" t="s">
         <v>215</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23">
       <c r="A40" s="7" t="s">
         <v>216</v>
       </c>
@@ -23851,7 +23851,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23">
       <c r="A41" s="7" t="s">
         <v>217</v>
       </c>
@@ -23922,7 +23922,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23">
       <c r="A42" s="7" t="s">
         <v>226</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23">
       <c r="A43" s="7" t="s">
         <v>227</v>
       </c>
@@ -24064,7 +24064,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23">
       <c r="A44" s="7" t="s">
         <v>228</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" s="7" t="s">
         <v>229</v>
       </c>
@@ -24206,7 +24206,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="A46" s="7" t="s">
         <v>230</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" s="7" t="s">
         <v>231</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="A48" s="7" t="s">
         <v>258</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" s="7" t="s">
         <v>382</v>
       </c>
@@ -24490,7 +24490,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="15.5" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>532</v>
       </c>
@@ -24561,7 +24561,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" s="7" t="s">
         <v>532</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23">
       <c r="A52" s="7" t="s">
         <v>145</v>
       </c>
@@ -24703,7 +24703,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23">
       <c r="A53" s="7" t="s">
         <v>532</v>
       </c>
@@ -24774,7 +24774,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23">
       <c r="A54" s="7" t="s">
         <v>532</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23">
       <c r="A55" s="7" t="s">
         <v>145</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23">
       <c r="A56" s="7" t="s">
         <v>145</v>
       </c>
@@ -24987,7 +24987,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23">
       <c r="A57" s="7" t="s">
         <v>145</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23">
       <c r="A58" s="7" t="s">
         <v>145</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23">
       <c r="A59" s="7" t="s">
         <v>145</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23">
       <c r="A60" s="7" t="s">
         <v>145</v>
       </c>
@@ -25271,7 +25271,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23">
       <c r="A61" s="7" t="s">
         <v>145</v>
       </c>
@@ -25342,7 +25342,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23">
       <c r="A62" s="7" t="s">
         <v>533</v>
       </c>
@@ -25413,7 +25413,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23">
       <c r="A63" s="7" t="s">
         <v>533</v>
       </c>
@@ -25484,7 +25484,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23">
       <c r="A64" s="7" t="s">
         <v>145</v>
       </c>
@@ -25547,7 +25547,7 @@
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23">
       <c r="A65" s="7" t="s">
         <v>145</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23">
       <c r="A66" s="7" t="s">
         <v>145</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23">
       <c r="A67" s="7" t="s">
         <v>145</v>
       </c>
@@ -25752,7 +25752,7 @@
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23">
       <c r="A68" s="7" t="s">
         <v>145</v>
       </c>
@@ -25815,7 +25815,7 @@
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23">
       <c r="A69" s="7" t="s">
         <v>145</v>
       </c>
@@ -25878,7 +25878,7 @@
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23">
       <c r="A70" s="7" t="s">
         <v>145</v>
       </c>
@@ -25941,7 +25941,7 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23">
       <c r="A71" s="7" t="s">
         <v>145</v>
       </c>
@@ -26004,7 +26004,7 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23">
       <c r="A72" s="7" t="s">
         <v>145</v>
       </c>
@@ -26067,7 +26067,7 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23">
       <c r="A73" s="7" t="s">
         <v>145</v>
       </c>
@@ -26130,7 +26130,7 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23">
       <c r="A74" s="7" t="s">
         <v>598</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23">
       <c r="A75" s="7" t="s">
         <v>598</v>
       </c>
@@ -26272,7 +26272,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23">
       <c r="A76" s="7" t="s">
         <v>598</v>
       </c>
@@ -26343,7 +26343,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23">
       <c r="A77" s="7" t="s">
         <v>598</v>
       </c>
@@ -26414,7 +26414,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23">
       <c r="A78" s="7" t="s">
         <v>598</v>
       </c>
@@ -26485,7 +26485,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23">
       <c r="A79" s="7" t="s">
         <v>598</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23">
       <c r="A80" s="7" t="s">
         <v>598</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23">
       <c r="A81" s="7" t="s">
         <v>598</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23">
       <c r="A82" s="7" t="s">
         <v>598</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23">
       <c r="A83" s="7" t="s">
         <v>598</v>
       </c>
@@ -26840,7 +26840,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23">
       <c r="A84" s="7" t="s">
         <v>598</v>
       </c>
@@ -26911,7 +26911,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23">
       <c r="A85" s="7" t="s">
         <v>598</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23">
       <c r="A86" s="7" t="s">
         <v>598</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23">
       <c r="A87" s="7" t="s">
         <v>598</v>
       </c>
@@ -27116,7 +27116,7 @@
       <c r="V87" s="15"/>
       <c r="W87" s="15"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23">
       <c r="A88" s="7" t="s">
         <v>598</v>
       </c>
@@ -27179,7 +27179,7 @@
       <c r="V88" s="15"/>
       <c r="W88" s="15"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23">
       <c r="A89" s="7" t="s">
         <v>598</v>
       </c>
@@ -27242,7 +27242,7 @@
       <c r="V89" s="15"/>
       <c r="W89" s="15"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23">
       <c r="A90" s="7" t="s">
         <v>598</v>
       </c>
@@ -27305,7 +27305,7 @@
       <c r="V90" s="15"/>
       <c r="W90" s="15"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23">
       <c r="A91" s="7" t="s">
         <v>598</v>
       </c>
@@ -27368,7 +27368,7 @@
       <c r="V91" s="15"/>
       <c r="W91" s="15"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23">
       <c r="A92" s="7" t="s">
         <v>598</v>
       </c>
@@ -27431,7 +27431,7 @@
       <c r="V92" s="15"/>
       <c r="W92" s="15"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23">
       <c r="A93" s="7" t="s">
         <v>598</v>
       </c>
@@ -27494,7 +27494,7 @@
       <c r="V93" s="15"/>
       <c r="W93" s="15"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23">
       <c r="A94" s="30" t="s">
         <v>496</v>
       </c>
@@ -27565,7 +27565,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23">
       <c r="A95" s="7" t="s">
         <v>145</v>
       </c>
@@ -27636,7 +27636,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23">
       <c r="A96" s="7" t="s">
         <v>145</v>
       </c>
@@ -27707,7 +27707,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23">
       <c r="A97" s="7" t="s">
         <v>145</v>
       </c>
@@ -27778,7 +27778,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23">
       <c r="A98" s="7" t="s">
         <v>145</v>
       </c>
@@ -27849,7 +27849,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23">
       <c r="A99" s="7" t="s">
         <v>145</v>
       </c>
@@ -27920,7 +27920,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23">
       <c r="A100" s="7" t="s">
         <v>145</v>
       </c>
@@ -27991,7 +27991,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23">
       <c r="A101" s="7" t="s">
         <v>145</v>
       </c>
@@ -28062,7 +28062,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23">
       <c r="A102" s="7" t="s">
         <v>145</v>
       </c>
@@ -28133,7 +28133,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23">
       <c r="A103" s="7" t="s">
         <v>145</v>
       </c>
@@ -28204,7 +28204,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23">
       <c r="A104" s="7" t="s">
         <v>534</v>
       </c>
@@ -28275,7 +28275,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23">
       <c r="A105" s="7" t="s">
         <v>145</v>
       </c>
@@ -28346,7 +28346,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23">
       <c r="A106" s="7" t="s">
         <v>145</v>
       </c>
@@ -28417,7 +28417,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23">
       <c r="A107" s="7" t="s">
         <v>145</v>
       </c>
@@ -28488,7 +28488,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23">
       <c r="A108" s="7" t="s">
         <v>145</v>
       </c>
@@ -28559,7 +28559,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23">
       <c r="A109" s="7" t="s">
         <v>145</v>
       </c>
@@ -28630,7 +28630,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23">
       <c r="A110" s="7" t="s">
         <v>145</v>
       </c>
@@ -28701,7 +28701,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23">
       <c r="A111" s="7" t="s">
         <v>145</v>
       </c>
@@ -28772,7 +28772,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23">
       <c r="A112" s="7" t="s">
         <v>145</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23">
       <c r="A113" s="7" t="s">
         <v>145</v>
       </c>
@@ -28914,7 +28914,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23">
       <c r="A114" s="7" t="s">
         <v>145</v>
       </c>
@@ -28977,7 +28977,7 @@
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23">
       <c r="A115" s="7" t="s">
         <v>145</v>
       </c>
@@ -29040,7 +29040,7 @@
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23">
       <c r="A116" s="7" t="s">
         <v>145</v>
       </c>
@@ -29103,7 +29103,7 @@
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23">
       <c r="A117" s="7" t="s">
         <v>145</v>
       </c>
@@ -29166,7 +29166,7 @@
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23">
       <c r="A118" s="7" t="s">
         <v>145</v>
       </c>
@@ -29229,7 +29229,7 @@
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23">
       <c r="A119" s="7" t="s">
         <v>145</v>
       </c>
@@ -29292,7 +29292,7 @@
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23">
       <c r="A120" s="7" t="s">
         <v>145</v>
       </c>
@@ -29355,7 +29355,7 @@
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23">
       <c r="A121" s="7" t="s">
         <v>642</v>
       </c>
@@ -29426,7 +29426,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23">
       <c r="A122" s="7" t="s">
         <v>145</v>
       </c>
@@ -29497,7 +29497,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23">
       <c r="A123" s="7" t="s">
         <v>145</v>
       </c>
@@ -29568,7 +29568,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23">
       <c r="A124" s="7" t="s">
         <v>145</v>
       </c>
@@ -29639,7 +29639,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23">
       <c r="A125" s="7" t="s">
         <v>145</v>
       </c>
@@ -29710,7 +29710,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23">
       <c r="A126" s="7" t="s">
         <v>145</v>
       </c>
@@ -29781,7 +29781,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23">
       <c r="A127" s="7" t="s">
         <v>145</v>
       </c>
@@ -29852,7 +29852,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23">
       <c r="A128" s="7" t="s">
         <v>145</v>
       </c>
@@ -29923,7 +29923,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23">
       <c r="A129" s="7" t="s">
         <v>145</v>
       </c>
@@ -29994,7 +29994,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23">
       <c r="A130" s="7" t="s">
         <v>145</v>
       </c>
@@ -30065,7 +30065,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23">
       <c r="A131" s="7" t="s">
         <v>145</v>
       </c>
@@ -30136,7 +30136,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23">
       <c r="A132" s="7" t="s">
         <v>145</v>
       </c>
@@ -30207,7 +30207,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23">
       <c r="A133" s="7" t="s">
         <v>145</v>
       </c>
@@ -30278,7 +30278,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23">
       <c r="A134" s="7" t="s">
         <v>145</v>
       </c>
@@ -30349,7 +30349,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23">
       <c r="A135" s="7" t="s">
         <v>145</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23">
       <c r="A136" s="7" t="s">
         <v>891</v>
       </c>
@@ -30491,7 +30491,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23">
       <c r="A137" s="7" t="s">
         <v>145</v>
       </c>
@@ -30562,7 +30562,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23">
       <c r="A138" s="7" t="s">
         <v>145</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23">
       <c r="A139" s="7" t="s">
         <v>145</v>
       </c>
@@ -30704,7 +30704,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23">
       <c r="A140" s="7" t="s">
         <v>145</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23">
       <c r="A141" s="7" t="s">
         <v>145</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23">
       <c r="A142" s="7" t="s">
         <v>145</v>
       </c>
@@ -30917,7 +30917,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23">
       <c r="A143" s="7" t="s">
         <v>145</v>
       </c>
@@ -30988,7 +30988,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23">
       <c r="A144" s="7" t="s">
         <v>145</v>
       </c>
@@ -31059,7 +31059,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23">
       <c r="A145" s="7" t="s">
         <v>145</v>
       </c>
@@ -31130,7 +31130,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23">
       <c r="A146" s="7" t="s">
         <v>705</v>
       </c>
@@ -31201,7 +31201,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23">
       <c r="A147" s="7" t="s">
         <v>145</v>
       </c>
@@ -31272,7 +31272,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23">
       <c r="A148" s="7" t="s">
         <v>145</v>
       </c>
@@ -31343,7 +31343,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23">
       <c r="A149" s="7" t="s">
         <v>145</v>
       </c>
@@ -31414,7 +31414,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23">
       <c r="A150" s="7" t="s">
         <v>145</v>
       </c>
@@ -31485,7 +31485,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23">
       <c r="A151" s="7" t="s">
         <v>145</v>
       </c>
@@ -31556,7 +31556,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23">
       <c r="A152" s="7" t="s">
         <v>145</v>
       </c>
@@ -31627,7 +31627,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23">
       <c r="A153" s="7" t="s">
         <v>145</v>
       </c>
@@ -31698,7 +31698,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23">
       <c r="A154" s="7" t="s">
         <v>145</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23">
       <c r="A155" s="7" t="s">
         <v>145</v>
       </c>
@@ -31840,7 +31840,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23">
       <c r="A156" s="7" t="s">
         <v>145</v>
       </c>
@@ -31911,7 +31911,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23">
       <c r="A157" s="7" t="s">
         <v>145</v>
       </c>
@@ -31982,7 +31982,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23">
       <c r="A158" s="7" t="s">
         <v>145</v>
       </c>
@@ -32053,7 +32053,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23">
       <c r="A159" s="7" t="s">
         <v>145</v>
       </c>
@@ -32124,7 +32124,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23">
       <c r="A160" s="7" t="s">
         <v>145</v>
       </c>
@@ -32189,7 +32189,7 @@
       <c r="V160" s="6"/>
       <c r="W160" s="6"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23">
       <c r="A161" s="7" t="s">
         <v>758</v>
       </c>
@@ -32260,7 +32260,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23">
       <c r="A162" s="7" t="s">
         <v>145</v>
       </c>
@@ -32331,7 +32331,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23">
       <c r="A163" s="7" t="s">
         <v>145</v>
       </c>
@@ -32402,7 +32402,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23">
       <c r="A164" s="7" t="s">
         <v>145</v>
       </c>
@@ -32473,7 +32473,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23">
       <c r="A165" s="7" t="s">
         <v>145</v>
       </c>
@@ -32544,7 +32544,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23">
       <c r="A166" s="7" t="s">
         <v>145</v>
       </c>
@@ -32615,7 +32615,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23">
       <c r="A167" s="7" t="s">
         <v>145</v>
       </c>
@@ -32686,7 +32686,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23">
       <c r="A168" s="7" t="s">
         <v>145</v>
       </c>
@@ -32757,7 +32757,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23">
       <c r="A169" s="7" t="s">
         <v>145</v>
       </c>
@@ -32828,7 +32828,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23">
       <c r="A170" s="7" t="s">
         <v>145</v>
       </c>
@@ -32899,7 +32899,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23">
       <c r="A171" s="7" t="s">
         <v>145</v>
       </c>
@@ -32970,7 +32970,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23">
       <c r="A172" s="7" t="s">
         <v>145</v>
       </c>
@@ -33041,7 +33041,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23">
       <c r="A173" s="7" t="s">
         <v>145</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23">
       <c r="A174" s="7" t="s">
         <v>145</v>
       </c>
@@ -33183,7 +33183,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23">
       <c r="A175" s="7" t="s">
         <v>145</v>
       </c>
@@ -33254,7 +33254,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23">
       <c r="A176" s="7" t="s">
         <v>831</v>
       </c>
@@ -33325,7 +33325,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23">
       <c r="A177" s="7" t="s">
         <v>145</v>
       </c>
@@ -33396,7 +33396,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23">
       <c r="A178" s="7" t="s">
         <v>145</v>
       </c>
@@ -33467,7 +33467,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23">
       <c r="A179" s="7" t="s">
         <v>145</v>
       </c>
@@ -33538,7 +33538,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23">
       <c r="A180" s="7" t="s">
         <v>145</v>
       </c>
@@ -33609,7 +33609,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23">
       <c r="A181" s="7" t="s">
         <v>145</v>
       </c>
@@ -33680,7 +33680,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23">
       <c r="A182" s="7" t="s">
         <v>145</v>
       </c>
@@ -33751,7 +33751,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23">
       <c r="A183" s="7" t="s">
         <v>145</v>
       </c>
@@ -33822,7 +33822,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23">
       <c r="A184" s="7" t="s">
         <v>145</v>
       </c>
@@ -33893,7 +33893,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23">
       <c r="A185" s="7" t="s">
         <v>145</v>
       </c>
@@ -33964,7 +33964,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23">
       <c r="A186" s="7" t="s">
         <v>145</v>
       </c>
@@ -34035,7 +34035,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23">
       <c r="A187" s="7" t="s">
         <v>145</v>
       </c>
@@ -34106,7 +34106,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23">
       <c r="A188" s="7" t="s">
         <v>145</v>
       </c>
@@ -34177,7 +34177,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23">
       <c r="A189" s="7" t="s">
         <v>145</v>
       </c>
@@ -34248,7 +34248,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23">
       <c r="A190" s="7" t="s">
         <v>145</v>
       </c>
@@ -34313,7 +34313,7 @@
       <c r="V190" s="15"/>
       <c r="W190" s="15"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23">
       <c r="A191" s="7" t="s">
         <v>892</v>
       </c>
@@ -34384,7 +34384,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23">
       <c r="A192" s="7" t="s">
         <v>145</v>
       </c>
@@ -34455,7 +34455,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23">
       <c r="A193" s="7" t="s">
         <v>145</v>
       </c>
@@ -34526,7 +34526,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23">
       <c r="A194" s="7" t="s">
         <v>145</v>
       </c>
@@ -34597,7 +34597,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23">
       <c r="A195" s="7" t="s">
         <v>145</v>
       </c>
@@ -34668,7 +34668,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23">
       <c r="A196" s="7" t="s">
         <v>145</v>
       </c>
@@ -34739,7 +34739,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23">
       <c r="A197" s="7" t="s">
         <v>145</v>
       </c>
@@ -34810,7 +34810,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23">
       <c r="A198" s="7" t="s">
         <v>145</v>
       </c>
@@ -34875,7 +34875,7 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23">
       <c r="A199" s="7" t="s">
         <v>145</v>
       </c>
@@ -34938,7 +34938,7 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23">
       <c r="A200" s="7" t="s">
         <v>145</v>
       </c>
@@ -35001,7 +35001,7 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23">
       <c r="A201" s="7" t="s">
         <v>145</v>
       </c>
@@ -35064,7 +35064,7 @@
       <c r="V201" s="6"/>
       <c r="W201" s="6"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23">
       <c r="A202" s="7" t="s">
         <v>145</v>
       </c>
@@ -35127,7 +35127,7 @@
       <c r="V202" s="6"/>
       <c r="W202" s="6"/>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23">
       <c r="A203" s="7" t="s">
         <v>145</v>
       </c>
@@ -35190,7 +35190,7 @@
       <c r="V203" s="6"/>
       <c r="W203" s="6"/>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23">
       <c r="A204" s="7" t="s">
         <v>145</v>
       </c>
@@ -35253,7 +35253,7 @@
       <c r="V204" s="6"/>
       <c r="W204" s="6"/>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23">
       <c r="A205" s="7" t="s">
         <v>145</v>
       </c>
@@ -35316,12 +35316,12 @@
       <c r="V205" s="6"/>
       <c r="W205" s="6"/>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23">
       <c r="B207" s="49" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23">
       <c r="A208" s="7" t="s">
         <v>963</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23">
       <c r="A209" s="7" t="s">
         <v>145</v>
       </c>
@@ -35463,7 +35463,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23">
       <c r="A210" s="7" t="s">
         <v>145</v>
       </c>
@@ -35534,7 +35534,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23">
       <c r="A211" s="7" t="s">
         <v>145</v>
       </c>
@@ -35605,7 +35605,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23">
       <c r="A212" s="7" t="s">
         <v>145</v>
       </c>
@@ -35676,7 +35676,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23">
       <c r="A213" s="7" t="s">
         <v>145</v>
       </c>
@@ -35747,7 +35747,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23">
       <c r="A214" s="7" t="s">
         <v>145</v>
       </c>
@@ -35818,7 +35818,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23">
       <c r="A215" s="7" t="s">
         <v>145</v>
       </c>
@@ -35889,7 +35889,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23">
       <c r="A216" s="7" t="s">
         <v>145</v>
       </c>
@@ -35960,7 +35960,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23">
       <c r="A217" s="7" t="s">
         <v>145</v>
       </c>
@@ -36031,7 +36031,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23">
       <c r="A218" s="7" t="s">
         <v>145</v>
       </c>
@@ -36102,7 +36102,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23">
       <c r="A219" s="7" t="s">
         <v>145</v>
       </c>
@@ -36173,7 +36173,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23">
       <c r="A220" s="7" t="s">
         <v>145</v>
       </c>
@@ -36244,7 +36244,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23">
       <c r="A221" s="7" t="s">
         <v>145</v>
       </c>
@@ -36315,7 +36315,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23">
       <c r="A222" s="7" t="s">
         <v>145</v>
       </c>
@@ -36386,7 +36386,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23">
       <c r="A223" s="7" t="s">
         <v>145</v>
       </c>
@@ -36457,7 +36457,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23">
       <c r="A224" s="7" t="s">
         <v>145</v>
       </c>
@@ -36528,7 +36528,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23">
       <c r="A225" s="7" t="s">
         <v>145</v>
       </c>
@@ -36599,7 +36599,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23">
       <c r="A226" s="7" t="s">
         <v>145</v>
       </c>
@@ -36670,7 +36670,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23">
       <c r="A227" s="7" t="s">
         <v>145</v>
       </c>
@@ -36741,7 +36741,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23">
       <c r="A228" s="7" t="s">
         <v>145</v>
       </c>
@@ -36812,7 +36812,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23">
       <c r="A229" s="7" t="s">
         <v>145</v>
       </c>
@@ -36883,7 +36883,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23">
       <c r="A230" s="7" t="s">
         <v>145</v>
       </c>
@@ -36954,7 +36954,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23">
       <c r="A231" s="7" t="s">
         <v>145</v>
       </c>
@@ -37025,7 +37025,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23">
       <c r="A232" s="7" t="s">
         <v>145</v>
       </c>
@@ -37096,7 +37096,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23">
       <c r="A233" s="7" t="s">
         <v>145</v>
       </c>
@@ -37167,7 +37167,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23">
       <c r="A234" s="7" t="s">
         <v>145</v>
       </c>
@@ -37238,7 +37238,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23">
       <c r="A235" s="7" t="s">
         <v>145</v>
       </c>
@@ -37309,7 +37309,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23">
       <c r="A236" s="7" t="s">
         <v>145</v>
       </c>
@@ -37380,7 +37380,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23">
       <c r="A237" s="7" t="s">
         <v>145</v>
       </c>
@@ -37451,7 +37451,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23">
       <c r="A238" s="7" t="s">
         <v>145</v>
       </c>
@@ -37522,7 +37522,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23">
       <c r="A239" s="7" t="s">
         <v>145</v>
       </c>
@@ -37593,7 +37593,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23">
       <c r="A240" s="7" t="s">
         <v>145</v>
       </c>
@@ -37664,7 +37664,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23">
       <c r="A241" s="7" t="s">
         <v>145</v>
       </c>
@@ -37735,7 +37735,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23">
       <c r="A242" s="7" t="s">
         <v>145</v>
       </c>
@@ -37806,7 +37806,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23">
       <c r="A243" s="7" t="s">
         <v>145</v>
       </c>
@@ -37877,7 +37877,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23">
       <c r="A244" s="7" t="s">
         <v>145</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23">
       <c r="A245" s="7" t="s">
         <v>145</v>
       </c>
@@ -38011,7 +38011,7 @@
       <c r="V245" s="6"/>
       <c r="W245" s="6"/>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23">
       <c r="A246" s="7" t="s">
         <v>145</v>
       </c>
@@ -38074,7 +38074,7 @@
       <c r="V246" s="6"/>
       <c r="W246" s="6"/>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23">
       <c r="A247" s="7" t="s">
         <v>145</v>
       </c>
@@ -38137,7 +38137,7 @@
       <c r="V247" s="6"/>
       <c r="W247" s="6"/>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23">
       <c r="A248" s="7" t="s">
         <v>145</v>
       </c>
@@ -38200,7 +38200,7 @@
       <c r="V248" s="6"/>
       <c r="W248" s="6"/>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23">
       <c r="A249" s="7" t="s">
         <v>145</v>
       </c>
@@ -38263,7 +38263,7 @@
       <c r="V249" s="6"/>
       <c r="W249" s="6"/>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23">
       <c r="A250" s="7" t="s">
         <v>145</v>
       </c>
@@ -38326,7 +38326,7 @@
       <c r="V250" s="6"/>
       <c r="W250" s="6"/>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23">
       <c r="A251" s="7" t="s">
         <v>145</v>
       </c>
@@ -38389,7 +38389,7 @@
       <c r="V251" s="6"/>
       <c r="W251" s="6"/>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23">
       <c r="A252" s="7" t="s">
         <v>145</v>
       </c>
@@ -38452,7 +38452,7 @@
       <c r="V252" s="6"/>
       <c r="W252" s="6"/>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23">
       <c r="A253" s="7" t="s">
         <v>1250</v>
       </c>
@@ -38523,7 +38523,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23">
       <c r="A254" s="7" t="s">
         <v>145</v>
       </c>
@@ -38594,7 +38594,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23">
       <c r="A255" s="7" t="s">
         <v>145</v>
       </c>
@@ -38665,7 +38665,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23">
       <c r="A256" s="7" t="s">
         <v>145</v>
       </c>
@@ -38736,7 +38736,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23">
       <c r="A257" s="7" t="s">
         <v>145</v>
       </c>
@@ -38807,7 +38807,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23">
       <c r="A258" s="7" t="s">
         <v>145</v>
       </c>
@@ -38878,7 +38878,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23">
       <c r="A259" s="7" t="s">
         <v>145</v>
       </c>
@@ -38949,7 +38949,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23">
       <c r="A260" s="7" t="s">
         <v>145</v>
       </c>
@@ -39020,7 +39020,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23">
       <c r="A261" s="7" t="s">
         <v>145</v>
       </c>
@@ -39091,7 +39091,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23">
       <c r="A262" s="7" t="s">
         <v>145</v>
       </c>
@@ -39162,7 +39162,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23">
       <c r="A263" s="7" t="s">
         <v>145</v>
       </c>
@@ -39233,7 +39233,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23">
       <c r="A264" s="7" t="s">
         <v>145</v>
       </c>
@@ -39304,7 +39304,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23">
       <c r="A265" s="7" t="s">
         <v>145</v>
       </c>
@@ -39375,7 +39375,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23">
       <c r="A266" s="7" t="s">
         <v>145</v>
       </c>
@@ -39446,7 +39446,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23">
       <c r="A267" s="7" t="s">
         <v>145</v>
       </c>
@@ -39517,7 +39517,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23">
       <c r="A268" s="7" t="s">
         <v>145</v>
       </c>
@@ -39588,7 +39588,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23">
       <c r="A269" s="7" t="s">
         <v>145</v>
       </c>
@@ -39659,7 +39659,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23">
       <c r="A270" s="7" t="s">
         <v>145</v>
       </c>
@@ -39730,7 +39730,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23">
       <c r="A271" s="7" t="s">
         <v>145</v>
       </c>
@@ -39801,7 +39801,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23">
       <c r="A272" s="7" t="s">
         <v>145</v>
       </c>
@@ -39872,7 +39872,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23">
       <c r="A273" s="7" t="s">
         <v>145</v>
       </c>
@@ -39943,7 +39943,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23">
       <c r="A274" s="7" t="s">
         <v>145</v>
       </c>
@@ -40014,7 +40014,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23">
       <c r="A275" s="7" t="s">
         <v>145</v>
       </c>
@@ -40085,7 +40085,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23">
       <c r="A276" s="7" t="s">
         <v>145</v>
       </c>
@@ -40156,7 +40156,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23">
       <c r="A277" s="7" t="s">
         <v>145</v>
       </c>
@@ -40227,7 +40227,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23">
       <c r="A278" s="7" t="s">
         <v>145</v>
       </c>
@@ -40298,7 +40298,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23">
       <c r="A279" s="7" t="s">
         <v>145</v>
       </c>
@@ -40369,7 +40369,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23">
       <c r="A280" s="7" t="s">
         <v>145</v>
       </c>
@@ -40440,7 +40440,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23">
       <c r="A281" s="7" t="s">
         <v>145</v>
       </c>
@@ -40511,7 +40511,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23">
       <c r="A282" s="7" t="s">
         <v>145</v>
       </c>
@@ -40582,7 +40582,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23">
       <c r="A283" s="7" t="s">
         <v>145</v>
       </c>
@@ -40653,7 +40653,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23">
       <c r="A284" s="7" t="s">
         <v>145</v>
       </c>
@@ -40724,7 +40724,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23">
       <c r="A285" s="7" t="s">
         <v>145</v>
       </c>
@@ -40787,7 +40787,7 @@
       <c r="V285" s="6"/>
       <c r="W285" s="6"/>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23">
       <c r="A286" s="7" t="s">
         <v>145</v>
       </c>
@@ -40850,7 +40850,7 @@
       <c r="V286" s="6"/>
       <c r="W286" s="6"/>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23">
       <c r="A287" s="7" t="s">
         <v>145</v>
       </c>
@@ -40913,7 +40913,7 @@
       <c r="V287" s="6"/>
       <c r="W287" s="6"/>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23">
       <c r="A288" s="7" t="s">
         <v>145</v>
       </c>
@@ -40976,7 +40976,7 @@
       <c r="V288" s="6"/>
       <c r="W288" s="6"/>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23">
       <c r="A289" s="7" t="s">
         <v>145</v>
       </c>
@@ -41039,7 +41039,7 @@
       <c r="V289" s="6"/>
       <c r="W289" s="6"/>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23">
       <c r="A290" s="7" t="s">
         <v>145</v>
       </c>
@@ -41102,7 +41102,7 @@
       <c r="V290" s="6"/>
       <c r="W290" s="6"/>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23">
       <c r="A291" s="7" t="s">
         <v>145</v>
       </c>
@@ -41165,7 +41165,7 @@
       <c r="V291" s="6"/>
       <c r="W291" s="6"/>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23">
       <c r="A292" s="7" t="s">
         <v>145</v>
       </c>
@@ -41228,7 +41228,7 @@
       <c r="V292" s="6"/>
       <c r="W292" s="6"/>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23">
       <c r="A293" s="7" t="s">
         <v>145</v>
       </c>
@@ -41291,7 +41291,7 @@
       <c r="V293" s="6"/>
       <c r="W293" s="6"/>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23">
       <c r="A294" s="7" t="s">
         <v>145</v>
       </c>
@@ -41354,7 +41354,7 @@
       <c r="V294" s="6"/>
       <c r="W294" s="6"/>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23">
       <c r="A295" s="7" t="s">
         <v>145</v>
       </c>
@@ -41417,7 +41417,7 @@
       <c r="V295" s="6"/>
       <c r="W295" s="6"/>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23">
       <c r="A296" s="7" t="s">
         <v>145</v>
       </c>
@@ -41480,7 +41480,7 @@
       <c r="V296" s="6"/>
       <c r="W296" s="6"/>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23">
       <c r="A297" s="7" t="s">
         <v>145</v>
       </c>
@@ -41543,7 +41543,7 @@
       <c r="V297" s="6"/>
       <c r="W297" s="6"/>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23">
       <c r="A298" s="7" t="s">
         <v>1114</v>
       </c>
@@ -41614,7 +41614,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23">
       <c r="A299" s="7" t="s">
         <v>145</v>
       </c>
@@ -41685,7 +41685,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23">
       <c r="A300" s="7" t="s">
         <v>145</v>
       </c>
@@ -41756,7 +41756,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23">
       <c r="A301" s="7" t="s">
         <v>145</v>
       </c>
@@ -41827,7 +41827,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23">
       <c r="A302" s="7" t="s">
         <v>145</v>
       </c>
@@ -41898,7 +41898,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23">
       <c r="A303" s="7" t="s">
         <v>145</v>
       </c>
@@ -41969,7 +41969,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23">
       <c r="A304" s="7" t="s">
         <v>145</v>
       </c>
@@ -42040,7 +42040,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23">
       <c r="A305" s="7" t="s">
         <v>145</v>
       </c>
@@ -42111,7 +42111,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23">
       <c r="A306" s="7" t="s">
         <v>145</v>
       </c>
@@ -42182,7 +42182,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23">
       <c r="A307" s="7" t="s">
         <v>145</v>
       </c>
@@ -42253,7 +42253,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23">
       <c r="A308" s="7" t="s">
         <v>145</v>
       </c>
@@ -42324,7 +42324,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23">
       <c r="A309" s="7" t="s">
         <v>145</v>
       </c>
@@ -42395,7 +42395,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23">
       <c r="A310" s="7" t="s">
         <v>145</v>
       </c>
@@ -42466,7 +42466,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23">
       <c r="A311" s="7" t="s">
         <v>145</v>
       </c>
@@ -42537,7 +42537,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23">
       <c r="A312" s="7" t="s">
         <v>145</v>
       </c>
@@ -42608,7 +42608,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23">
       <c r="A313" s="7" t="s">
         <v>145</v>
       </c>
@@ -42679,7 +42679,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23">
       <c r="A314" s="7" t="s">
         <v>145</v>
       </c>
@@ -42750,7 +42750,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23">
       <c r="A315" s="7" t="s">
         <v>145</v>
       </c>
@@ -42821,7 +42821,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23">
       <c r="A316" s="7" t="s">
         <v>145</v>
       </c>
@@ -42892,7 +42892,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23">
       <c r="A317" s="7" t="s">
         <v>145</v>
       </c>
@@ -42963,7 +42963,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23">
       <c r="A318" s="7" t="s">
         <v>145</v>
       </c>
@@ -43034,7 +43034,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23">
       <c r="A319" s="7" t="s">
         <v>145</v>
       </c>
@@ -43105,7 +43105,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23">
       <c r="A320" s="7" t="s">
         <v>145</v>
       </c>
@@ -43176,7 +43176,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23">
       <c r="A321" s="7" t="s">
         <v>145</v>
       </c>
@@ -43247,7 +43247,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23">
       <c r="A322" s="7" t="s">
         <v>145</v>
       </c>
@@ -43318,7 +43318,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23">
       <c r="A323" s="7" t="s">
         <v>145</v>
       </c>
@@ -43389,7 +43389,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23">
       <c r="A324" s="7" t="s">
         <v>145</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23">
       <c r="A325" s="7" t="s">
         <v>145</v>
       </c>
@@ -43531,7 +43531,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23">
       <c r="A326" s="7" t="s">
         <v>145</v>
       </c>
@@ -43602,7 +43602,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23">
       <c r="A327" s="7" t="s">
         <v>145</v>
       </c>
@@ -43673,7 +43673,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23">
       <c r="A328" s="7" t="s">
         <v>145</v>
       </c>
@@ -43744,7 +43744,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23">
       <c r="A329" s="7" t="s">
         <v>145</v>
       </c>
@@ -43815,7 +43815,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23">
       <c r="A330" s="7" t="s">
         <v>145</v>
       </c>
@@ -43886,7 +43886,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23">
       <c r="A331" s="7" t="s">
         <v>145</v>
       </c>
@@ -43957,7 +43957,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23">
       <c r="A332" s="7" t="s">
         <v>145</v>
       </c>
@@ -44028,7 +44028,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23">
       <c r="A333" s="7" t="s">
         <v>145</v>
       </c>
@@ -44099,7 +44099,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23">
       <c r="A334" s="7" t="s">
         <v>145</v>
       </c>
@@ -44162,7 +44162,7 @@
       <c r="V334" s="6"/>
       <c r="W334" s="6"/>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23">
       <c r="A335" s="7" t="s">
         <v>145</v>
       </c>
@@ -44225,7 +44225,7 @@
       <c r="V335" s="6"/>
       <c r="W335" s="6"/>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23">
       <c r="A336" s="7" t="s">
         <v>145</v>
       </c>
@@ -44288,7 +44288,7 @@
       <c r="V336" s="6"/>
       <c r="W336" s="6"/>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23">
       <c r="A337" s="7" t="s">
         <v>145</v>
       </c>
@@ -44351,7 +44351,7 @@
       <c r="V337" s="6"/>
       <c r="W337" s="6"/>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23">
       <c r="A338" s="7" t="s">
         <v>145</v>
       </c>
@@ -44414,7 +44414,7 @@
       <c r="V338" s="6"/>
       <c r="W338" s="6"/>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23">
       <c r="A339" s="7" t="s">
         <v>145</v>
       </c>
@@ -44477,7 +44477,7 @@
       <c r="V339" s="6"/>
       <c r="W339" s="6"/>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23">
       <c r="A340" s="7" t="s">
         <v>145</v>
       </c>
@@ -44540,7 +44540,7 @@
       <c r="V340" s="6"/>
       <c r="W340" s="6"/>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23">
       <c r="A341" s="7" t="s">
         <v>145</v>
       </c>
@@ -44603,7 +44603,7 @@
       <c r="V341" s="6"/>
       <c r="W341" s="6"/>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23">
       <c r="A342" s="7" t="s">
         <v>145</v>
       </c>
@@ -44666,7 +44666,7 @@
       <c r="V342" s="6"/>
       <c r="W342" s="6"/>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23">
       <c r="A343" s="7" t="s">
         <v>1388</v>
       </c>
@@ -44737,7 +44737,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23">
       <c r="A344" s="7" t="s">
         <v>145</v>
       </c>
@@ -44808,7 +44808,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23">
       <c r="A345" s="7" t="s">
         <v>145</v>
       </c>
@@ -44879,7 +44879,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23">
       <c r="A346" s="7" t="s">
         <v>145</v>
       </c>
@@ -44950,7 +44950,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23">
       <c r="A347" s="7" t="s">
         <v>145</v>
       </c>
@@ -45021,7 +45021,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23">
       <c r="A348" s="7" t="s">
         <v>145</v>
       </c>
@@ -45092,7 +45092,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23">
       <c r="A349" s="7" t="s">
         <v>145</v>
       </c>
@@ -45163,7 +45163,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23">
       <c r="A350" s="7" t="s">
         <v>145</v>
       </c>
@@ -45234,7 +45234,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23">
       <c r="A351" s="7" t="s">
         <v>145</v>
       </c>
@@ -45305,7 +45305,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23">
       <c r="A352" s="7" t="s">
         <v>145</v>
       </c>
@@ -45376,7 +45376,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23">
       <c r="A353" s="7" t="s">
         <v>145</v>
       </c>
@@ -45447,7 +45447,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23">
       <c r="A354" s="7" t="s">
         <v>145</v>
       </c>
@@ -45518,7 +45518,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23">
       <c r="A355" s="7" t="s">
         <v>145</v>
       </c>
@@ -45589,7 +45589,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23">
       <c r="A356" s="7" t="s">
         <v>145</v>
       </c>
@@ -45660,7 +45660,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:23">
       <c r="A357" s="7" t="s">
         <v>145</v>
       </c>
@@ -45731,7 +45731,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:23">
       <c r="A358" s="7" t="s">
         <v>145</v>
       </c>
@@ -45802,7 +45802,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:23">
       <c r="A359" s="7" t="s">
         <v>145</v>
       </c>
@@ -45873,7 +45873,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:23">
       <c r="A360" s="7" t="s">
         <v>1433</v>
       </c>
@@ -45944,7 +45944,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:23">
       <c r="A361" s="7" t="s">
         <v>145</v>
       </c>
@@ -46015,7 +46015,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23">
       <c r="A362" s="7" t="s">
         <v>145</v>
       </c>
@@ -46086,7 +46086,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23">
       <c r="A363" s="7" t="s">
         <v>145</v>
       </c>
@@ -46157,7 +46157,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23">
       <c r="A364" s="7" t="s">
         <v>145</v>
       </c>
@@ -46228,7 +46228,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23">
       <c r="A365" s="7" t="s">
         <v>145</v>
       </c>
@@ -46299,7 +46299,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23">
       <c r="A366" s="7" t="s">
         <v>145</v>
       </c>
@@ -46370,7 +46370,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23">
       <c r="A367" s="7" t="s">
         <v>145</v>
       </c>
@@ -46441,7 +46441,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23">
       <c r="A368" s="7" t="s">
         <v>145</v>
       </c>
@@ -46512,7 +46512,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:23">
       <c r="A369" s="7" t="s">
         <v>145</v>
       </c>
@@ -46583,7 +46583,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:23">
       <c r="A370" s="7" t="s">
         <v>145</v>
       </c>
@@ -46654,7 +46654,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:23">
       <c r="A371" s="7" t="s">
         <v>145</v>
       </c>
@@ -46725,7 +46725,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:23">
       <c r="A372" s="7" t="s">
         <v>145</v>
       </c>
@@ -46796,7 +46796,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:23">
       <c r="A373" s="7" t="s">
         <v>145</v>
       </c>
@@ -46867,7 +46867,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:23">
       <c r="A374" s="7" t="s">
         <v>145</v>
       </c>
@@ -46938,7 +46938,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:23">
       <c r="A375" s="7" t="s">
         <v>145</v>
       </c>
@@ -47009,7 +47009,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:23">
       <c r="A376" s="7" t="s">
         <v>145</v>
       </c>
@@ -47080,7 +47080,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:23">
       <c r="A377" s="7" t="s">
         <v>1499</v>
       </c>
@@ -47151,7 +47151,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:23">
       <c r="A378" s="7" t="s">
         <v>145</v>
       </c>
@@ -47222,7 +47222,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:23">
       <c r="A379" s="7" t="s">
         <v>145</v>
       </c>
@@ -47293,7 +47293,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:23">
       <c r="A380" s="7" t="s">
         <v>145</v>
       </c>
@@ -47364,7 +47364,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:23">
       <c r="A381" s="7" t="s">
         <v>145</v>
       </c>
@@ -47435,7 +47435,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:23">
       <c r="A382" s="7" t="s">
         <v>145</v>
       </c>
@@ -47506,7 +47506,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:23">
       <c r="A383" s="7" t="s">
         <v>145</v>
       </c>
@@ -47577,7 +47577,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:23">
       <c r="A384" s="7" t="s">
         <v>145</v>
       </c>
@@ -47648,7 +47648,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:23">
       <c r="A385" s="7" t="s">
         <v>145</v>
       </c>
@@ -47719,7 +47719,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:23">
       <c r="A386" s="7" t="s">
         <v>145</v>
       </c>
@@ -47790,7 +47790,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:23">
       <c r="A387" s="7" t="s">
         <v>145</v>
       </c>
@@ -47861,7 +47861,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:23">
       <c r="A388" s="7" t="s">
         <v>145</v>
       </c>
@@ -47932,7 +47932,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:23">
       <c r="A389" s="7" t="s">
         <v>145</v>
       </c>
@@ -48003,7 +48003,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:23">
       <c r="A390" s="7" t="s">
         <v>145</v>
       </c>
@@ -48074,7 +48074,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:23">
       <c r="A391" s="7" t="s">
         <v>145</v>
       </c>
@@ -48145,20 +48145,20 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:23">
       <c r="B393" s="54" t="s">
         <v>1663</v>
       </c>
-      <c r="T393" s="59" t="s">
+      <c r="T393" s="60" t="s">
         <v>1589</v>
       </c>
-      <c r="U393" s="59"/>
-      <c r="V393" s="59" t="s">
+      <c r="U393" s="60"/>
+      <c r="V393" s="60" t="s">
         <v>1590</v>
       </c>
-      <c r="W393" s="59"/>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W393" s="60"/>
+    </row>
+    <row r="394" spans="1:23">
       <c r="A394" s="7" t="s">
         <v>1635</v>
       </c>
@@ -48229,7 +48229,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:23">
       <c r="A395" s="7" t="s">
         <v>145</v>
       </c>
@@ -48300,7 +48300,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:23">
       <c r="A396" s="7" t="s">
         <v>145</v>
       </c>
@@ -48371,7 +48371,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:23">
       <c r="A397" s="7" t="s">
         <v>145</v>
       </c>
@@ -48442,7 +48442,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:23">
       <c r="A398" s="7" t="s">
         <v>145</v>
       </c>
@@ -48513,7 +48513,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:23">
       <c r="A399" s="7" t="s">
         <v>145</v>
       </c>
@@ -48584,7 +48584,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:23">
       <c r="A400" s="7" t="s">
         <v>145</v>
       </c>
@@ -48655,7 +48655,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:23">
       <c r="A401" s="7" t="s">
         <v>145</v>
       </c>
@@ -48726,7 +48726,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:23">
       <c r="A402" s="7" t="s">
         <v>145</v>
       </c>
@@ -48797,7 +48797,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:23">
       <c r="A403" s="7" t="s">
         <v>145</v>
       </c>
@@ -48868,7 +48868,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:23">
       <c r="A404" s="7" t="s">
         <v>145</v>
       </c>
@@ -48939,7 +48939,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:23">
       <c r="A405" s="7" t="s">
         <v>145</v>
       </c>
@@ -49010,7 +49010,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:23">
       <c r="A406" s="7" t="s">
         <v>145</v>
       </c>
@@ -49081,7 +49081,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:23">
       <c r="A407" s="7" t="s">
         <v>145</v>
       </c>
@@ -49144,7 +49144,7 @@
       <c r="V407" s="6"/>
       <c r="W407" s="6"/>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:23">
       <c r="A408" s="7" t="s">
         <v>145</v>
       </c>
@@ -49207,7 +49207,7 @@
       <c r="V408" s="6"/>
       <c r="W408" s="6"/>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:23">
       <c r="A409" s="7" t="s">
         <v>145</v>
       </c>
@@ -49270,7 +49270,7 @@
       <c r="V409" s="27"/>
       <c r="W409" s="27"/>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:23">
       <c r="A410" s="7" t="s">
         <v>145</v>
       </c>
@@ -49333,7 +49333,7 @@
       <c r="V410" s="27"/>
       <c r="W410" s="27"/>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:23">
       <c r="A411" s="7" t="s">
         <v>145</v>
       </c>
@@ -49396,7 +49396,7 @@
       <c r="V411" s="27"/>
       <c r="W411" s="27"/>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:23">
       <c r="A412" s="7" t="s">
         <v>1636</v>
       </c>
@@ -49467,7 +49467,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:23">
       <c r="A413" s="7" t="s">
         <v>145</v>
       </c>
@@ -49538,7 +49538,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:23">
       <c r="A414" s="7" t="s">
         <v>145</v>
       </c>
@@ -49609,7 +49609,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:23">
       <c r="A415" s="7" t="s">
         <v>145</v>
       </c>
@@ -49680,7 +49680,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:23">
       <c r="A416" s="7" t="s">
         <v>145</v>
       </c>
@@ -49751,7 +49751,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:23">
       <c r="A417" s="7" t="s">
         <v>145</v>
       </c>
@@ -49822,7 +49822,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:23">
       <c r="A418" s="7" t="s">
         <v>145</v>
       </c>
@@ -49893,7 +49893,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:23">
       <c r="A419" s="7" t="s">
         <v>145</v>
       </c>
@@ -49964,7 +49964,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:23">
       <c r="A420" s="7" t="s">
         <v>145</v>
       </c>
@@ -50035,7 +50035,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:23">
       <c r="A421" s="7" t="s">
         <v>145</v>
       </c>
@@ -50106,7 +50106,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:23">
       <c r="A422" s="7" t="s">
         <v>145</v>
       </c>
@@ -50177,7 +50177,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:23">
       <c r="A423" s="7" t="s">
         <v>145</v>
       </c>
@@ -50248,7 +50248,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:23">
       <c r="A424" s="7" t="s">
         <v>145</v>
       </c>
@@ -50311,7 +50311,7 @@
       <c r="V424" s="6"/>
       <c r="W424" s="6"/>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:23">
       <c r="A425" s="7" t="s">
         <v>145</v>
       </c>
@@ -50374,7 +50374,7 @@
       <c r="V425" s="6"/>
       <c r="W425" s="6"/>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:23">
       <c r="A426" s="7" t="s">
         <v>145</v>
       </c>
@@ -50437,7 +50437,7 @@
       <c r="V426" s="6"/>
       <c r="W426" s="6"/>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:23">
       <c r="A427" s="7" t="s">
         <v>145</v>
       </c>
@@ -50500,7 +50500,7 @@
       <c r="V427" s="6"/>
       <c r="W427" s="6"/>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:23">
       <c r="A428" s="7" t="s">
         <v>145</v>
       </c>
@@ -50563,7 +50563,7 @@
       <c r="V428" s="6"/>
       <c r="W428" s="6"/>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:23">
       <c r="A429" s="7" t="s">
         <v>145</v>
       </c>
@@ -50626,7 +50626,7 @@
       <c r="V429" s="6"/>
       <c r="W429" s="6"/>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:23">
       <c r="A430" s="7" t="s">
         <v>1695</v>
       </c>
@@ -50697,7 +50697,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:23">
       <c r="A431" s="7" t="s">
         <v>145</v>
       </c>
@@ -50768,7 +50768,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:23">
       <c r="A432" s="7" t="s">
         <v>145</v>
       </c>
@@ -50839,7 +50839,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:23">
       <c r="A433" s="7" t="s">
         <v>145</v>
       </c>
@@ -50910,7 +50910,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:23">
       <c r="A434" s="7" t="s">
         <v>145</v>
       </c>
@@ -50981,7 +50981,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:23">
       <c r="A435" s="7" t="s">
         <v>145</v>
       </c>
@@ -51052,7 +51052,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:23">
       <c r="A436" s="7" t="s">
         <v>145</v>
       </c>
@@ -51123,7 +51123,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:23">
       <c r="A437" s="7" t="s">
         <v>145</v>
       </c>
@@ -51194,7 +51194,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:23">
       <c r="A438" s="7" t="s">
         <v>145</v>
       </c>
@@ -51265,7 +51265,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:23">
       <c r="A439" s="7" t="s">
         <v>145</v>
       </c>
@@ -51336,7 +51336,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:23">
       <c r="A440" s="7" t="s">
         <v>145</v>
       </c>
@@ -51407,7 +51407,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:23">
       <c r="A441" s="7" t="s">
         <v>145</v>
       </c>
@@ -51478,7 +51478,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:23">
       <c r="A442" s="7" t="s">
         <v>145</v>
       </c>
@@ -51549,7 +51549,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:23">
       <c r="A443" s="7" t="s">
         <v>145</v>
       </c>
@@ -51620,7 +51620,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:23">
       <c r="A444" s="7" t="s">
         <v>145</v>
       </c>
@@ -51691,7 +51691,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:23">
       <c r="A445" s="7" t="s">
         <v>145</v>
       </c>
@@ -51762,7 +51762,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:23">
       <c r="A446" s="7" t="s">
         <v>145</v>
       </c>
@@ -51833,7 +51833,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:23">
       <c r="A447" s="7" t="s">
         <v>145</v>
       </c>
@@ -51904,12 +51904,12 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:23">
       <c r="T458" s="51" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:23">
       <c r="A459" s="7" t="s">
         <v>268</v>
       </c>
@@ -51980,7 +51980,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:23">
       <c r="A460" s="7" t="s">
         <v>145</v>
       </c>
@@ -52051,7 +52051,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:23">
       <c r="A461" s="7" t="s">
         <v>145</v>
       </c>
@@ -52122,7 +52122,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:23">
       <c r="A462" s="7" t="s">
         <v>145</v>
       </c>
@@ -52193,7 +52193,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:23">
       <c r="A463" s="7" t="s">
         <v>145</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:23">
       <c r="A464" s="7" t="s">
         <v>145</v>
       </c>
@@ -52335,7 +52335,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:23">
       <c r="A465" s="7" t="s">
         <v>145</v>
       </c>
@@ -52406,7 +52406,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:23">
       <c r="A466" s="7" t="s">
         <v>145</v>
       </c>
@@ -52477,7 +52477,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:23">
       <c r="A467" s="7" t="s">
         <v>145</v>
       </c>
@@ -52548,7 +52548,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:23">
       <c r="A468" s="7" t="s">
         <v>145</v>
       </c>
@@ -52619,7 +52619,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:23">
       <c r="A469" s="7" t="s">
         <v>145</v>
       </c>
@@ -52690,7 +52690,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:23">
       <c r="A470" s="7" t="s">
         <v>145</v>
       </c>
@@ -52761,7 +52761,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:23">
       <c r="A471" s="7" t="s">
         <v>145</v>
       </c>
@@ -52832,7 +52832,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:23">
       <c r="A472" s="7" t="s">
         <v>145</v>
       </c>
@@ -52903,7 +52903,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:23">
       <c r="A473" s="7" t="s">
         <v>145</v>
       </c>
@@ -52974,7 +52974,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:23">
       <c r="A474" s="7" t="s">
         <v>145</v>
       </c>
@@ -53045,7 +53045,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:23">
       <c r="A475" s="7" t="s">
         <v>145</v>
       </c>
@@ -53116,7 +53116,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:23">
       <c r="A476" s="7" t="s">
         <v>145</v>
       </c>
@@ -53187,7 +53187,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:23">
       <c r="A477" s="7" t="s">
         <v>145</v>
       </c>
@@ -53258,7 +53258,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:23">
       <c r="A478" s="7" t="s">
         <v>145</v>
       </c>
@@ -53329,7 +53329,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:23">
       <c r="A479" s="7" t="s">
         <v>145</v>
       </c>
@@ -53400,7 +53400,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:23">
       <c r="A480" s="7" t="s">
         <v>145</v>
       </c>
@@ -53471,7 +53471,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:23">
       <c r="A481" s="7" t="s">
         <v>145</v>
       </c>
@@ -53542,7 +53542,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:23">
       <c r="A482" s="7" t="s">
         <v>145</v>
       </c>
@@ -53613,7 +53613,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:23">
       <c r="A483" s="7" t="s">
         <v>145</v>
       </c>
@@ -53684,7 +53684,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:23">
       <c r="A484" s="7" t="s">
         <v>145</v>
       </c>
@@ -53755,7 +53755,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:23">
       <c r="A485" s="7" t="s">
         <v>145</v>
       </c>
@@ -53826,7 +53826,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:23">
       <c r="A486" s="7" t="s">
         <v>145</v>
       </c>
@@ -53897,7 +53897,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:23">
       <c r="A487" s="7" t="s">
         <v>145</v>
       </c>
@@ -53968,7 +53968,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:23">
       <c r="A488" s="7" t="s">
         <v>145</v>
       </c>
@@ -54031,7 +54031,7 @@
       <c r="V488" s="6"/>
       <c r="W488" s="6"/>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:23">
       <c r="A489" s="7" t="s">
         <v>145</v>
       </c>
@@ -54094,7 +54094,7 @@
       <c r="V489" s="6"/>
       <c r="W489" s="6"/>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:23">
       <c r="A490" s="7" t="s">
         <v>145</v>
       </c>
@@ -54157,7 +54157,7 @@
       <c r="V490" s="6"/>
       <c r="W490" s="6"/>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:23">
       <c r="A491" s="7" t="s">
         <v>145</v>
       </c>
@@ -54220,7 +54220,7 @@
       <c r="V491" s="6"/>
       <c r="W491" s="6"/>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:23">
       <c r="A492" s="7" t="s">
         <v>145</v>
       </c>
@@ -54283,7 +54283,7 @@
       <c r="V492" s="6"/>
       <c r="W492" s="6"/>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:23">
       <c r="A493" s="7" t="s">
         <v>145</v>
       </c>
@@ -54346,7 +54346,7 @@
       <c r="V493" s="6"/>
       <c r="W493" s="6"/>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:23">
       <c r="A494" s="7" t="s">
         <v>145</v>
       </c>
@@ -54409,7 +54409,7 @@
       <c r="V494" s="6"/>
       <c r="W494" s="6"/>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:23">
       <c r="A495" s="7" t="s">
         <v>145</v>
       </c>
@@ -54472,7 +54472,7 @@
       <c r="V495" s="27"/>
       <c r="W495" s="27"/>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:23">
       <c r="A496" s="7" t="s">
         <v>145</v>
       </c>
@@ -54535,7 +54535,7 @@
       <c r="V496" s="27"/>
       <c r="W496" s="27"/>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:23">
       <c r="A497" s="7" t="s">
         <v>145</v>
       </c>
@@ -54598,7 +54598,7 @@
       <c r="V497" s="27"/>
       <c r="W497" s="27"/>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:23">
       <c r="A498" s="7" t="s">
         <v>145</v>
       </c>
@@ -54661,7 +54661,7 @@
       <c r="V498" s="27"/>
       <c r="W498" s="27"/>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:23">
       <c r="A499" s="7" t="s">
         <v>145</v>
       </c>
@@ -54724,7 +54724,7 @@
       <c r="V499" s="27"/>
       <c r="W499" s="27"/>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:23">
       <c r="A500" s="7" t="s">
         <v>145</v>
       </c>
@@ -54787,7 +54787,7 @@
       <c r="V500" s="27"/>
       <c r="W500" s="27"/>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:23">
       <c r="A501" s="7" t="s">
         <v>145</v>
       </c>
@@ -54850,7 +54850,7 @@
       <c r="V501" s="27"/>
       <c r="W501" s="27"/>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:23">
       <c r="A502" s="7" t="s">
         <v>145</v>
       </c>
@@ -54913,7 +54913,7 @@
       <c r="V502" s="27"/>
       <c r="W502" s="27"/>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:23">
       <c r="A503" s="7" t="s">
         <v>145</v>
       </c>
@@ -54976,7 +54976,7 @@
       <c r="V503" s="27"/>
       <c r="W503" s="27"/>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:23">
       <c r="A504" s="7" t="s">
         <v>145</v>
       </c>
@@ -55039,7 +55039,7 @@
       <c r="V504" s="27"/>
       <c r="W504" s="27"/>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:23">
       <c r="A505" s="7" t="s">
         <v>145</v>
       </c>
@@ -55102,7 +55102,7 @@
       <c r="V505" s="27"/>
       <c r="W505" s="27"/>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:23">
       <c r="A506" s="7" t="s">
         <v>145</v>
       </c>
@@ -55165,7 +55165,7 @@
       <c r="V506" s="27"/>
       <c r="W506" s="27"/>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:23">
       <c r="A507" s="7" t="s">
         <v>145</v>
       </c>
@@ -55228,7 +55228,7 @@
       <c r="V507" s="27"/>
       <c r="W507" s="27"/>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:23">
       <c r="A508" s="7" t="s">
         <v>145</v>
       </c>
@@ -55291,7 +55291,7 @@
       <c r="V508" s="27"/>
       <c r="W508" s="27"/>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:23">
       <c r="A509" s="7" t="s">
         <v>145</v>
       </c>
@@ -55354,7 +55354,7 @@
       <c r="V509" s="27"/>
       <c r="W509" s="27"/>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:23">
       <c r="A510" s="7" t="s">
         <v>145</v>
       </c>
@@ -55417,7 +55417,7 @@
       <c r="V510" s="27"/>
       <c r="W510" s="27"/>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:23">
       <c r="A511" s="7" t="s">
         <v>145</v>
       </c>
@@ -55480,7 +55480,7 @@
       <c r="V511" s="27"/>
       <c r="W511" s="27"/>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:23">
       <c r="A512" s="7" t="s">
         <v>145</v>
       </c>
@@ -55543,7 +55543,7 @@
       <c r="V512" s="27"/>
       <c r="W512" s="27"/>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:23">
       <c r="A513" s="7" t="s">
         <v>145</v>
       </c>
@@ -55606,7 +55606,7 @@
       <c r="V513" s="27"/>
       <c r="W513" s="27"/>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:23">
       <c r="A514" s="7" t="s">
         <v>145</v>
       </c>
@@ -55669,7 +55669,7 @@
       <c r="V514" s="27"/>
       <c r="W514" s="27"/>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:23">
       <c r="A515" s="7" t="s">
         <v>145</v>
       </c>
@@ -55732,7 +55732,7 @@
       <c r="V515" s="27"/>
       <c r="W515" s="27"/>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:23">
       <c r="A516" s="7" t="s">
         <v>145</v>
       </c>
@@ -55795,7 +55795,7 @@
       <c r="V516" s="27"/>
       <c r="W516" s="27"/>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:23">
       <c r="A517" s="7" t="s">
         <v>145</v>
       </c>
@@ -55858,7 +55858,7 @@
       <c r="V517" s="27"/>
       <c r="W517" s="27"/>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:23">
       <c r="A518" s="7" t="s">
         <v>145</v>
       </c>
@@ -55921,7 +55921,7 @@
       <c r="V518" s="27"/>
       <c r="W518" s="27"/>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:23">
       <c r="A519" s="7" t="s">
         <v>145</v>
       </c>
@@ -55984,7 +55984,7 @@
       <c r="V519" s="27"/>
       <c r="W519" s="27"/>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:23">
       <c r="A520" s="7" t="s">
         <v>145</v>
       </c>
@@ -56047,7 +56047,7 @@
       <c r="V520" s="27"/>
       <c r="W520" s="27"/>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:23">
       <c r="A521" s="7" t="s">
         <v>145</v>
       </c>
@@ -56110,7 +56110,7 @@
       <c r="V521" s="27"/>
       <c r="W521" s="27"/>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:23">
       <c r="A522" s="7" t="s">
         <v>145</v>
       </c>
@@ -56173,7 +56173,7 @@
       <c r="V522" s="27"/>
       <c r="W522" s="27"/>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:23">
       <c r="A523" s="7" t="s">
         <v>145</v>
       </c>
@@ -56236,7 +56236,7 @@
       <c r="V523" s="27"/>
       <c r="W523" s="27"/>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:23">
       <c r="A524" s="7" t="s">
         <v>145</v>
       </c>
@@ -56299,7 +56299,7 @@
       <c r="V524" s="27"/>
       <c r="W524" s="27"/>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:23">
       <c r="A525" s="7" t="s">
         <v>145</v>
       </c>
@@ -56362,7 +56362,7 @@
       <c r="V525" s="27"/>
       <c r="W525" s="27"/>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:23">
       <c r="A526" s="7" t="s">
         <v>145</v>
       </c>
@@ -56425,7 +56425,7 @@
       <c r="V526" s="27"/>
       <c r="W526" s="27"/>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:23">
       <c r="A527" s="7" t="s">
         <v>145</v>
       </c>
@@ -56488,7 +56488,7 @@
       <c r="V527" s="27"/>
       <c r="W527" s="27"/>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:23">
       <c r="A528" s="7" t="s">
         <v>145</v>
       </c>
@@ -56551,7 +56551,7 @@
       <c r="V528" s="27"/>
       <c r="W528" s="27"/>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:23">
       <c r="A529" s="7" t="s">
         <v>145</v>
       </c>
@@ -56614,7 +56614,7 @@
       <c r="V529" s="27"/>
       <c r="W529" s="27"/>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:23">
       <c r="A530" s="7" t="s">
         <v>145</v>
       </c>
@@ -56677,7 +56677,7 @@
       <c r="V530" s="27"/>
       <c r="W530" s="27"/>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:23">
       <c r="A532" s="7" t="s">
         <v>438</v>
       </c>
@@ -56748,7 +56748,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:23">
       <c r="A533" s="7" t="s">
         <v>145</v>
       </c>
@@ -56819,7 +56819,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:23">
       <c r="A534" s="7" t="s">
         <v>145</v>
       </c>
@@ -56890,7 +56890,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:23">
       <c r="A535" s="7" t="s">
         <v>145</v>
       </c>
@@ -56961,7 +56961,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:23">
       <c r="A536" s="7" t="s">
         <v>145</v>
       </c>
@@ -57032,7 +57032,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:23">
       <c r="A537" s="7" t="s">
         <v>145</v>
       </c>
@@ -57103,7 +57103,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:23">
       <c r="A538" s="7" t="s">
         <v>145</v>
       </c>
@@ -57174,7 +57174,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:23">
       <c r="A539" s="7" t="s">
         <v>145</v>
       </c>
@@ -57245,7 +57245,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:23">
       <c r="A540" s="7" t="s">
         <v>145</v>
       </c>
@@ -57316,7 +57316,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:23">
       <c r="A541" s="7" t="s">
         <v>145</v>
       </c>
@@ -57387,7 +57387,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:23">
       <c r="A542" s="7" t="s">
         <v>145</v>
       </c>
@@ -57458,7 +57458,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:23">
       <c r="A543" s="7" t="s">
         <v>145</v>
       </c>
@@ -57529,7 +57529,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:23">
       <c r="A544" s="7" t="s">
         <v>145</v>
       </c>
@@ -57600,7 +57600,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:23">
       <c r="A545" s="7" t="s">
         <v>145</v>
       </c>
@@ -57671,7 +57671,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:23">
       <c r="A546" s="7" t="s">
         <v>145</v>
       </c>
@@ -57734,7 +57734,7 @@
       <c r="V546" s="6"/>
       <c r="W546" s="6"/>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:23">
       <c r="A547" s="7" t="s">
         <v>145</v>
       </c>
@@ -57797,7 +57797,7 @@
       <c r="V547" s="6"/>
       <c r="W547" s="6"/>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:23">
       <c r="A548" s="7" t="s">
         <v>145</v>
       </c>
@@ -57860,7 +57860,7 @@
       <c r="V548" s="6"/>
       <c r="W548" s="6"/>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:23">
       <c r="A549" s="7" t="s">
         <v>145</v>
       </c>
@@ -57923,7 +57923,7 @@
       <c r="V549" s="6"/>
       <c r="W549" s="6"/>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:23">
       <c r="A550" s="7" t="s">
         <v>145</v>
       </c>
@@ -57986,7 +57986,7 @@
       <c r="V550" s="6"/>
       <c r="W550" s="6"/>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:23">
       <c r="A551" s="7" t="s">
         <v>145</v>
       </c>
@@ -58049,7 +58049,7 @@
       <c r="V551" s="6"/>
       <c r="W551" s="6"/>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:23">
       <c r="A552" s="7" t="s">
         <v>145</v>
       </c>
@@ -58112,7 +58112,7 @@
       <c r="V552" s="6"/>
       <c r="W552" s="6"/>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:23">
       <c r="A553" s="7" t="s">
         <v>145</v>
       </c>
@@ -58175,7 +58175,7 @@
       <c r="V553" s="6"/>
       <c r="W553" s="6"/>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:23">
       <c r="A554" s="7" t="s">
         <v>145</v>
       </c>
@@ -58238,7 +58238,7 @@
       <c r="V554" s="6"/>
       <c r="W554" s="6"/>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:23">
       <c r="A555" s="7" t="s">
         <v>145</v>
       </c>
@@ -58301,7 +58301,7 @@
       <c r="V555" s="6"/>
       <c r="W555" s="6"/>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:23">
       <c r="A556" s="7" t="s">
         <v>145</v>
       </c>
@@ -58364,7 +58364,7 @@
       <c r="V556" s="6"/>
       <c r="W556" s="6"/>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:23">
       <c r="A557" s="7" t="s">
         <v>145</v>
       </c>
@@ -58427,7 +58427,7 @@
       <c r="V557" s="6"/>
       <c r="W557" s="6"/>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:23">
       <c r="A558" s="7" t="s">
         <v>145</v>
       </c>
@@ -58490,7 +58490,7 @@
       <c r="V558" s="6"/>
       <c r="W558" s="6"/>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:23">
       <c r="A559" s="7" t="s">
         <v>145</v>
       </c>
@@ -58553,7 +58553,7 @@
       <c r="V559" s="6"/>
       <c r="W559" s="6"/>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:23">
       <c r="A560" s="7" t="s">
         <v>145</v>
       </c>
@@ -58616,7 +58616,7 @@
       <c r="V560" s="6"/>
       <c r="W560" s="6"/>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:23">
       <c r="A561" s="7" t="s">
         <v>145</v>
       </c>
@@ -58679,7 +58679,7 @@
       <c r="V561" s="6"/>
       <c r="W561" s="6"/>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:23">
       <c r="A562" s="7" t="s">
         <v>145</v>
       </c>
@@ -58742,7 +58742,7 @@
       <c r="V562" s="6"/>
       <c r="W562" s="6"/>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:23">
       <c r="A563" s="7" t="s">
         <v>145</v>
       </c>
@@ -58805,7 +58805,7 @@
       <c r="V563" s="6"/>
       <c r="W563" s="6"/>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:23">
       <c r="A564" s="7" t="s">
         <v>145</v>
       </c>
@@ -58868,7 +58868,7 @@
       <c r="V564" s="6"/>
       <c r="W564" s="6"/>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:23">
       <c r="A565" s="7" t="s">
         <v>145</v>
       </c>
@@ -58931,7 +58931,7 @@
       <c r="V565" s="6"/>
       <c r="W565" s="6"/>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:23">
       <c r="A566" s="7" t="s">
         <v>145</v>
       </c>
@@ -58994,7 +58994,7 @@
       <c r="V566" s="6"/>
       <c r="W566" s="6"/>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:23">
       <c r="A567" s="7" t="s">
         <v>145</v>
       </c>
@@ -59057,7 +59057,7 @@
       <c r="V567" s="6"/>
       <c r="W567" s="6"/>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:23">
       <c r="A568" s="7" t="s">
         <v>145</v>
       </c>
@@ -59120,7 +59120,7 @@
       <c r="V568" s="6"/>
       <c r="W568" s="6"/>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:23">
       <c r="A569" s="7" t="s">
         <v>145</v>
       </c>
@@ -59183,7 +59183,7 @@
       <c r="V569" s="6"/>
       <c r="W569" s="6"/>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:23">
       <c r="A570" s="7" t="s">
         <v>145</v>
       </c>
@@ -59246,7 +59246,7 @@
       <c r="V570" s="6"/>
       <c r="W570" s="6"/>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:23">
       <c r="A571" s="7" t="s">
         <v>145</v>
       </c>
@@ -59309,7 +59309,7 @@
       <c r="V571" s="6"/>
       <c r="W571" s="6"/>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:23">
       <c r="A572" s="7" t="s">
         <v>145</v>
       </c>
@@ -59372,7 +59372,7 @@
       <c r="V572" s="6"/>
       <c r="W572" s="6"/>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:23">
       <c r="A573" s="7" t="s">
         <v>145</v>
       </c>
@@ -59435,7 +59435,7 @@
       <c r="V573" s="6"/>
       <c r="W573" s="6"/>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:23">
       <c r="A574" s="7" t="s">
         <v>145</v>
       </c>
@@ -59498,7 +59498,7 @@
       <c r="V574" s="6"/>
       <c r="W574" s="6"/>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:23">
       <c r="A575" s="7" t="s">
         <v>145</v>
       </c>
@@ -59561,7 +59561,7 @@
       <c r="V575" s="6"/>
       <c r="W575" s="6"/>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:23">
       <c r="A576" s="7" t="s">
         <v>145</v>
       </c>
@@ -59624,7 +59624,7 @@
       <c r="V576" s="6"/>
       <c r="W576" s="6"/>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:23">
       <c r="A577" s="7" t="s">
         <v>145</v>
       </c>
@@ -59687,7 +59687,7 @@
       <c r="V577" s="6"/>
       <c r="W577" s="6"/>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:23">
       <c r="A578" s="7" t="s">
         <v>145</v>
       </c>
@@ -59750,7 +59750,7 @@
       <c r="V578" s="6"/>
       <c r="W578" s="6"/>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:23">
       <c r="A579" s="7" t="s">
         <v>145</v>
       </c>
@@ -59813,7 +59813,7 @@
       <c r="V579" s="6"/>
       <c r="W579" s="6"/>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:23">
       <c r="A580" s="7" t="s">
         <v>145</v>
       </c>
@@ -59876,7 +59876,7 @@
       <c r="V580" s="6"/>
       <c r="W580" s="6"/>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:23">
       <c r="A581" s="7" t="s">
         <v>145</v>
       </c>
@@ -59939,7 +59939,7 @@
       <c r="V581" s="6"/>
       <c r="W581" s="6"/>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:23">
       <c r="A582" s="7" t="s">
         <v>145</v>
       </c>
@@ -60002,7 +60002,7 @@
       <c r="V582" s="6"/>
       <c r="W582" s="6"/>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:23">
       <c r="A583" s="7" t="s">
         <v>145</v>
       </c>
@@ -60065,7 +60065,7 @@
       <c r="V583" s="6"/>
       <c r="W583" s="6"/>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:23">
       <c r="A584" s="7" t="s">
         <v>145</v>
       </c>
@@ -60128,7 +60128,7 @@
       <c r="V584" s="6"/>
       <c r="W584" s="6"/>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:23">
       <c r="A585" s="7" t="s">
         <v>145</v>
       </c>
@@ -60191,7 +60191,7 @@
       <c r="V585" s="6"/>
       <c r="W585" s="6"/>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:23">
       <c r="A586" s="7" t="s">
         <v>145</v>
       </c>
@@ -60254,7 +60254,7 @@
       <c r="V586" s="6"/>
       <c r="W586" s="6"/>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:23">
       <c r="A587" s="7" t="s">
         <v>145</v>
       </c>
@@ -60317,7 +60317,7 @@
       <c r="V587" s="6"/>
       <c r="W587" s="6"/>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:23">
       <c r="A588" s="7" t="s">
         <v>145</v>
       </c>
@@ -60380,7 +60380,7 @@
       <c r="V588" s="6"/>
       <c r="W588" s="6"/>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:23">
       <c r="A589" s="7" t="s">
         <v>145</v>
       </c>
@@ -60443,7 +60443,7 @@
       <c r="V589" s="6"/>
       <c r="W589" s="6"/>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:23">
       <c r="A590" s="7" t="s">
         <v>145</v>
       </c>
@@ -60506,7 +60506,7 @@
       <c r="V590" s="6"/>
       <c r="W590" s="6"/>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:23">
       <c r="A591" s="7" t="s">
         <v>145</v>
       </c>
@@ -60569,7 +60569,7 @@
       <c r="V591" s="6"/>
       <c r="W591" s="6"/>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:23">
       <c r="A592" s="7" t="s">
         <v>145</v>
       </c>
@@ -60632,7 +60632,7 @@
       <c r="V592" s="6"/>
       <c r="W592" s="6"/>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:23">
       <c r="A593" s="7" t="s">
         <v>145</v>
       </c>
@@ -60695,7 +60695,7 @@
       <c r="V593" s="6"/>
       <c r="W593" s="6"/>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:23">
       <c r="A594" s="7" t="s">
         <v>145</v>
       </c>
@@ -60758,7 +60758,7 @@
       <c r="V594" s="6"/>
       <c r="W594" s="6"/>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:23">
       <c r="A595" s="7" t="s">
         <v>145</v>
       </c>
@@ -60821,7 +60821,7 @@
       <c r="V595" s="6"/>
       <c r="W595" s="6"/>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:23">
       <c r="A596" s="7" t="s">
         <v>145</v>
       </c>
@@ -60884,7 +60884,7 @@
       <c r="V596" s="6"/>
       <c r="W596" s="6"/>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:23">
       <c r="A597" s="7" t="s">
         <v>145</v>
       </c>
@@ -60947,7 +60947,7 @@
       <c r="V597" s="6"/>
       <c r="W597" s="6"/>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:23">
       <c r="A598" s="7" t="s">
         <v>145</v>
       </c>
@@ -61010,7 +61010,7 @@
       <c r="V598" s="6"/>
       <c r="W598" s="6"/>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:23">
       <c r="A599" s="7" t="s">
         <v>145</v>
       </c>
@@ -61073,7 +61073,7 @@
       <c r="V599" s="6"/>
       <c r="W599" s="6"/>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:23">
       <c r="A600" s="7" t="s">
         <v>145</v>
       </c>
@@ -61136,7 +61136,7 @@
       <c r="V600" s="6"/>
       <c r="W600" s="6"/>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:23">
       <c r="A601" s="7" t="s">
         <v>145</v>
       </c>
@@ -61199,7 +61199,7 @@
       <c r="V601" s="6"/>
       <c r="W601" s="6"/>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:23">
       <c r="A602" s="7" t="s">
         <v>145</v>
       </c>
@@ -61262,7 +61262,7 @@
       <c r="V602" s="6"/>
       <c r="W602" s="6"/>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:23">
       <c r="A603" s="7" t="s">
         <v>145</v>
       </c>
@@ -61325,7 +61325,7 @@
       <c r="V603" s="6"/>
       <c r="W603" s="6"/>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:23">
       <c r="A605" s="7" t="s">
         <v>1768</v>
       </c>
@@ -61396,7 +61396,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:23">
       <c r="A606" s="7" t="s">
         <v>145</v>
       </c>
@@ -61467,7 +61467,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:23">
       <c r="A607" s="7" t="s">
         <v>145</v>
       </c>
@@ -61538,7 +61538,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:23">
       <c r="A608" s="7" t="s">
         <v>145</v>
       </c>
@@ -61609,7 +61609,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:23">
       <c r="A609" s="7" t="s">
         <v>145</v>
       </c>
@@ -61680,7 +61680,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:23">
       <c r="A610" s="7" t="s">
         <v>145</v>
       </c>
@@ -61751,7 +61751,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:23">
       <c r="A611" s="7" t="s">
         <v>145</v>
       </c>
@@ -61822,7 +61822,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:23">
       <c r="A612" s="7" t="s">
         <v>145</v>
       </c>
@@ -61893,7 +61893,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:23">
       <c r="A613" s="7" t="s">
         <v>145</v>
       </c>
@@ -61964,7 +61964,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:23">
       <c r="A614" s="7" t="s">
         <v>145</v>
       </c>
@@ -62035,7 +62035,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:23">
       <c r="A615" s="7" t="s">
         <v>145</v>
       </c>
@@ -62106,7 +62106,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:23">
       <c r="A616" s="7" t="s">
         <v>145</v>
       </c>
@@ -62177,7 +62177,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:23">
       <c r="A617" s="7" t="s">
         <v>145</v>
       </c>
@@ -62248,7 +62248,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:23">
       <c r="A618" s="7" t="s">
         <v>145</v>
       </c>
@@ -62319,7 +62319,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:23">
       <c r="A619" s="7" t="s">
         <v>145</v>
       </c>
@@ -62390,7 +62390,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:23">
       <c r="A620" s="7" t="s">
         <v>145</v>
       </c>
@@ -62461,7 +62461,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:23">
       <c r="A621" s="7" t="s">
         <v>145</v>
       </c>
@@ -62532,7 +62532,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:23">
       <c r="A622" s="7" t="s">
         <v>145</v>
       </c>
@@ -62603,12 +62603,12 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:23">
       <c r="B623" s="58" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:23">
       <c r="A625" s="7" t="s">
         <v>1844</v>
       </c>
@@ -62679,7 +62679,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="626" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:23">
       <c r="A626" s="7" t="s">
         <v>145</v>
       </c>
@@ -62750,7 +62750,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:23">
       <c r="A627" s="7" t="s">
         <v>145</v>
       </c>
@@ -62821,7 +62821,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:23">
       <c r="A628" s="7" t="s">
         <v>145</v>
       </c>
@@ -62892,7 +62892,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:23">
       <c r="A629" s="7" t="s">
         <v>145</v>
       </c>
@@ -62963,7 +62963,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:23">
       <c r="A630" s="7" t="s">
         <v>145</v>
       </c>
@@ -63034,7 +63034,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:23">
       <c r="A631" s="7" t="s">
         <v>145</v>
       </c>
@@ -63105,7 +63105,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="632" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:23">
       <c r="A632" s="7" t="s">
         <v>145</v>
       </c>
@@ -63176,7 +63176,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="633" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:23">
       <c r="A633" s="7" t="s">
         <v>145</v>
       </c>
@@ -63247,7 +63247,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="634" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:23">
       <c r="A634" s="7" t="s">
         <v>145</v>
       </c>
@@ -63318,7 +63318,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="635" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:23">
       <c r="A635" s="7" t="s">
         <v>145</v>
       </c>
@@ -63389,7 +63389,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="636" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:23">
       <c r="A636" s="7" t="s">
         <v>145</v>
       </c>
@@ -63460,7 +63460,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="637" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:23">
       <c r="A637" s="7" t="s">
         <v>145</v>
       </c>
@@ -63531,7 +63531,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="638" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:23">
       <c r="A638" s="7" t="s">
         <v>145</v>
       </c>
@@ -63602,7 +63602,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="639" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:23">
       <c r="A639" s="7" t="s">
         <v>145</v>
       </c>
@@ -63673,7 +63673,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="640" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:23">
       <c r="A640" s="7" t="s">
         <v>145</v>
       </c>
@@ -63744,7 +63744,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:23">
       <c r="A641" s="7" t="s">
         <v>145</v>
       </c>
@@ -63815,7 +63815,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:23">
       <c r="A642" s="7" t="s">
         <v>145</v>
       </c>
@@ -63886,12 +63886,12 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:23">
       <c r="B643" s="56" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:23">
       <c r="A645" s="7" t="s">
         <v>1918</v>
       </c>
@@ -63954,7 +63954,7 @@
       <c r="V645" s="6"/>
       <c r="W645" s="6"/>
     </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:23">
       <c r="A646" s="7" t="s">
         <v>145</v>
       </c>
@@ -64017,7 +64017,7 @@
       <c r="V646" s="6"/>
       <c r="W646" s="6"/>
     </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:23">
       <c r="A647" s="7" t="s">
         <v>145</v>
       </c>
@@ -64080,7 +64080,7 @@
       <c r="V647" s="16"/>
       <c r="W647" s="16"/>
     </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:23">
       <c r="A648" s="7" t="s">
         <v>145</v>
       </c>
@@ -64143,7 +64143,7 @@
       <c r="V648" s="16"/>
       <c r="W648" s="16"/>
     </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:23">
       <c r="A649" s="7" t="s">
         <v>145</v>
       </c>
@@ -64206,7 +64206,7 @@
       <c r="V649" s="16"/>
       <c r="W649" s="16"/>
     </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:23">
       <c r="A650" s="7" t="s">
         <v>145</v>
       </c>
@@ -64269,7 +64269,7 @@
       <c r="V650" s="16"/>
       <c r="W650" s="16"/>
     </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:23">
       <c r="A651" s="7" t="s">
         <v>145</v>
       </c>
@@ -64332,7 +64332,7 @@
       <c r="V651" s="16"/>
       <c r="W651" s="16"/>
     </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:23">
       <c r="A652" s="7" t="s">
         <v>145</v>
       </c>
@@ -64395,7 +64395,7 @@
       <c r="V652" s="16"/>
       <c r="W652" s="16"/>
     </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:23">
       <c r="A653" s="7" t="s">
         <v>145</v>
       </c>
@@ -64453,12 +64453,12 @@
       <c r="S653" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="T653" s="60"/>
+      <c r="T653" s="59"/>
       <c r="U653" s="16"/>
       <c r="V653" s="16"/>
       <c r="W653" s="16"/>
     </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:23">
       <c r="A654" s="7" t="s">
         <v>145</v>
       </c>
@@ -64521,7 +64521,7 @@
       <c r="V654" s="16"/>
       <c r="W654" s="16"/>
     </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:23">
       <c r="A655" s="7" t="s">
         <v>145</v>
       </c>
@@ -64584,7 +64584,7 @@
       <c r="V655" s="16"/>
       <c r="W655" s="16"/>
     </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:23">
       <c r="A656" s="7" t="s">
         <v>145</v>
       </c>
@@ -64647,7 +64647,7 @@
       <c r="V656" s="16"/>
       <c r="W656" s="16"/>
     </row>
-    <row r="657" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:23">
       <c r="A657" s="7" t="s">
         <v>145</v>
       </c>
@@ -64710,7 +64710,7 @@
       <c r="V657" s="16"/>
       <c r="W657" s="16"/>
     </row>
-    <row r="658" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:23">
       <c r="A658" s="7" t="s">
         <v>145</v>
       </c>
@@ -64773,7 +64773,7 @@
       <c r="V658" s="16"/>
       <c r="W658" s="16"/>
     </row>
-    <row r="659" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:23">
       <c r="A659" s="7" t="s">
         <v>145</v>
       </c>
@@ -64836,7 +64836,7 @@
       <c r="V659" s="6"/>
       <c r="W659" s="6"/>
     </row>
-    <row r="660" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:23">
       <c r="A660" s="7" t="s">
         <v>145</v>
       </c>
@@ -64899,7 +64899,7 @@
       <c r="V660" s="6"/>
       <c r="W660" s="6"/>
     </row>
-    <row r="661" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:23">
       <c r="A661" s="7" t="s">
         <v>145</v>
       </c>
@@ -64962,7 +64962,7 @@
       <c r="V661" s="6"/>
       <c r="W661" s="6"/>
     </row>
-    <row r="662" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:23">
       <c r="A662" s="7" t="s">
         <v>145</v>
       </c>
@@ -65025,12 +65025,12 @@
       <c r="V662" s="6"/>
       <c r="W662" s="6"/>
     </row>
-    <row r="663" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:23">
       <c r="B663" s="58" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="665" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:23">
       <c r="A665" s="7" t="s">
         <v>1919</v>
       </c>
@@ -65093,7 +65093,7 @@
       <c r="V665" s="6"/>
       <c r="W665" s="6"/>
     </row>
-    <row r="666" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:23">
       <c r="A666" s="7" t="s">
         <v>145</v>
       </c>
@@ -65156,7 +65156,7 @@
       <c r="V666" s="6"/>
       <c r="W666" s="6"/>
     </row>
-    <row r="667" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:23">
       <c r="A667" s="7" t="s">
         <v>145</v>
       </c>
@@ -65219,7 +65219,7 @@
       <c r="V667" s="6"/>
       <c r="W667" s="6"/>
     </row>
-    <row r="668" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:23">
       <c r="A668" s="7" t="s">
         <v>145</v>
       </c>
@@ -65282,7 +65282,7 @@
       <c r="V668" s="6"/>
       <c r="W668" s="6"/>
     </row>
-    <row r="669" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:23">
       <c r="A669" s="7" t="s">
         <v>145</v>
       </c>
@@ -65345,7 +65345,7 @@
       <c r="V669" s="6"/>
       <c r="W669" s="6"/>
     </row>
-    <row r="670" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:23">
       <c r="A670" s="7" t="s">
         <v>145</v>
       </c>
@@ -65408,7 +65408,7 @@
       <c r="V670" s="6"/>
       <c r="W670" s="6"/>
     </row>
-    <row r="671" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:23">
       <c r="A671" s="7" t="s">
         <v>145</v>
       </c>
@@ -65471,7 +65471,7 @@
       <c r="V671" s="6"/>
       <c r="W671" s="6"/>
     </row>
-    <row r="672" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:23">
       <c r="A672" s="7" t="s">
         <v>145</v>
       </c>
@@ -65534,7 +65534,7 @@
       <c r="V672" s="6"/>
       <c r="W672" s="6"/>
     </row>
-    <row r="673" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:23">
       <c r="A673" s="7" t="s">
         <v>145</v>
       </c>
@@ -65597,7 +65597,7 @@
       <c r="V673" s="6"/>
       <c r="W673" s="6"/>
     </row>
-    <row r="674" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:23">
       <c r="A674" s="7" t="s">
         <v>145</v>
       </c>
@@ -65660,7 +65660,7 @@
       <c r="V674" s="6"/>
       <c r="W674" s="6"/>
     </row>
-    <row r="675" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:23">
       <c r="A675" s="7" t="s">
         <v>145</v>
       </c>
@@ -65723,7 +65723,7 @@
       <c r="V675" s="6"/>
       <c r="W675" s="6"/>
     </row>
-    <row r="676" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:23">
       <c r="A676" s="7" t="s">
         <v>145</v>
       </c>
@@ -65786,7 +65786,7 @@
       <c r="V676" s="6"/>
       <c r="W676" s="6"/>
     </row>
-    <row r="677" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:23">
       <c r="A677" s="7" t="s">
         <v>145</v>
       </c>
@@ -65849,7 +65849,7 @@
       <c r="V677" s="6"/>
       <c r="W677" s="6"/>
     </row>
-    <row r="678" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:23">
       <c r="A678" s="7" t="s">
         <v>145</v>
       </c>
@@ -65912,7 +65912,7 @@
       <c r="V678" s="6"/>
       <c r="W678" s="6"/>
     </row>
-    <row r="679" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:23">
       <c r="A679" s="7" t="s">
         <v>145</v>
       </c>
@@ -65975,7 +65975,7 @@
       <c r="V679" s="6"/>
       <c r="W679" s="6"/>
     </row>
-    <row r="680" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:23">
       <c r="A680" s="7" t="s">
         <v>145</v>
       </c>
@@ -66038,7 +66038,7 @@
       <c r="V680" s="6"/>
       <c r="W680" s="6"/>
     </row>
-    <row r="681" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:23">
       <c r="A681" s="7" t="s">
         <v>145</v>
       </c>
@@ -66101,7 +66101,7 @@
       <c r="V681" s="6"/>
       <c r="W681" s="6"/>
     </row>
-    <row r="682" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:23">
       <c r="A682" s="7" t="s">
         <v>145</v>
       </c>
@@ -66164,7 +66164,7 @@
       <c r="V682" s="6"/>
       <c r="W682" s="6"/>
     </row>
-    <row r="683" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:23">
       <c r="B683" s="56" t="s">
         <v>1869</v>
       </c>
